--- a/DemoProject/public/uploads/data.xlsx
+++ b/DemoProject/public/uploads/data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -58,31 +58,28 @@
     <t>mayssa.bouzid@esprit.tn</t>
   </si>
   <si>
-    <t>$argon2id$v=19$m=65536,t=4,p=1$cDVPYi40aDY4MTk5WUZaYQ$kaYWLedStD9ItZI3yi5fzqQEqim9hcYozr42bDJBq9I</t>
-  </si>
-  <si>
-    <t>hadil</t>
-  </si>
-  <si>
-    <t>kh</t>
-  </si>
-  <si>
-    <t>2022-04-22 09:39:21</t>
-  </si>
-  <si>
-    <t>mayssa.bouzid@esprit.ee</t>
-  </si>
-  <si>
-    <t>$argon2id$v=19$m=65536,t=4,p=1$NDBGa3Z2bGpzV296RDZoeQ$3FKCRUhc+DbbUOQSOWCqRPHcASnIxuGvbBxP4wlO098</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>2022-04-21 23:49:46</t>
+    <t>$argon2id$v=19$m=65536,t=4,p=1$ZHNqcVhjT1JvNjZDWEZHZQ$dtpVjMgF4YK4sNODnffIS4rwKnSwRrK1SAmkyb+RIT4</t>
+  </si>
+  <si>
+    <t>mayssa</t>
+  </si>
+  <si>
+    <t>bouzid</t>
+  </si>
+  <si>
+    <t>2022-04-29 01:08:04</t>
+  </si>
+  <si>
+    <t>mayssa.bouzid@esprit.tnn</t>
+  </si>
+  <si>
+    <t>$argon2id$v=19$m=65536,t=4,p=1$TDYuV0dFcWVCMWJsaU9IdA$XQtbj3Gy9lceef9umo3O5jvYQkIm3Q9w9tTPRyRcb/U</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>2022-04-29 01:03:23</t>
   </si>
 </sst>
 </file>
@@ -499,7 +496,7 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <v>77665544</v>
+        <v>52456290</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -507,7 +504,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -516,16 +513,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4">
+        <v>2147483647</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
-      </c>
-      <c r="F4">
-        <v>22113344</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
